--- a/results/mod2.antielite_salience.eff.MN.xlsx
+++ b/results/mod2.antielite_salience.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000626320428868014</v>
+        <v>0.000626981659475685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.031267835624223</v>
+        <v>0.0312677464914528</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0606575112691276</v>
+        <v>-0.0606566753415005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0619101521268636</v>
+        <v>0.0619106386604518</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0200308213333067</v>
+        <v>0.0200520258038766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.984018785625671</v>
+        <v>0.984001870303417</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113605490446748</v>
+        <v>0.11360307132373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0715514808296855</v>
+        <v>0.0715512318963397</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0266328350199432</v>
+        <v>-0.0266347662425697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.25384381591344</v>
+        <v>0.253840908890029</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58774478360782</v>
+        <v>1.58771649785587</v>
       </c>
       <c r="H3" t="n">
-        <v>0.112344061855289</v>
+        <v>0.112350460732678</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.064717103872058</v>
+        <v>-0.0647160191523166</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0321544830005159</v>
+        <v>0.0321544029679278</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.127738732494575</v>
+        <v>-0.127737490913843</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00169547524954142</v>
+        <v>-0.00169454739079029</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.01269303166901</v>
+        <v>-2.01266430656066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.044146932922483</v>
+        <v>0.0441499568077912</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0495147070035585</v>
+        <v>-0.0495140338308888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0267836322546263</v>
+        <v>0.0267835329940317</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.102009661597791</v>
+        <v>-0.102008793877931</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00298024759067433</v>
+        <v>0.00298072621615355</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.84869275880257</v>
+        <v>-1.84867447628818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0645021898943296</v>
+        <v>0.0645048313712321</v>
       </c>
     </row>
   </sheetData>
